--- a/Test document/OSSimulator test case.xlsx
+++ b/Test document/OSSimulator test case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="12435" windowHeight="6990" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="12435" windowHeight="6990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test classification" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -70,6 +70,34 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>File not found</t>
+  </si>
+  <si>
+    <t>Access deny</t>
+  </si>
+  <si>
+    <t>Blank line after the load address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read line with begin by a period followed by a number </t>
+  </si>
+  <si>
+    <t>file has comment line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read line with begin by a period followed by character </t>
+  </si>
+  <si>
+    <t>1
+100</t>
+  </si>
+  <si>
+    <t>.1000 //change store addres to 1000</t>
+  </si>
+  <si>
+    <t>.abc //invalid</t>
   </si>
 </sst>
 </file>
@@ -160,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,6 +199,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3298,14 +3336,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3335,7 +3373,7 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3346,57 +3384,75 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="2">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="2">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,7 +3460,7 @@
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
@@ -3413,7 +3469,7 @@
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -3422,7 +3478,7 @@
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
@@ -3431,7 +3487,7 @@
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
@@ -3440,7 +3496,7 @@
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
@@ -3449,7 +3505,7 @@
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
@@ -3458,7 +3514,7 @@
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
@@ -3467,7 +3523,7 @@
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
@@ -3476,7 +3532,7 @@
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
@@ -3485,7 +3541,7 @@
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
@@ -3494,7 +3550,7 @@
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
@@ -3503,7 +3559,7 @@
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
@@ -3512,7 +3568,7 @@
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
@@ -3521,7 +3577,7 @@
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
@@ -3530,7 +3586,7 @@
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
@@ -3539,7 +3595,7 @@
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
@@ -3548,7 +3604,7 @@
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
@@ -3557,7 +3613,7 @@
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
@@ -3566,7 +3622,7 @@
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
@@ -3575,7 +3631,7 @@
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
@@ -3584,7 +3640,7 @@
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
@@ -3593,7 +3649,7 @@
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
@@ -3602,7 +3658,7 @@
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
@@ -3611,7 +3667,7 @@
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
@@ -3620,7 +3676,7 @@
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
@@ -3629,7 +3685,7 @@
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
@@ -3638,7 +3694,7 @@
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
@@ -3647,7 +3703,7 @@
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
@@ -3656,7 +3712,7 @@
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
@@ -3665,7 +3721,7 @@
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
@@ -3674,7 +3730,7 @@
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
@@ -3683,7 +3739,7 @@
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
@@ -3692,7 +3748,7 @@
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
@@ -3701,7 +3757,7 @@
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
@@ -3710,7 +3766,7 @@
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
@@ -3719,7 +3775,7 @@
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
@@ -3728,7 +3784,7 @@
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
@@ -3737,7 +3793,7 @@
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
@@ -3746,7 +3802,7 @@
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
@@ -3755,7 +3811,7 @@
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
@@ -3764,7 +3820,7 @@
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
@@ -3773,7 +3829,7 @@
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
@@ -3782,7 +3838,7 @@
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
@@ -3791,7 +3847,7 @@
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
@@ -3800,7 +3856,7 @@
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
@@ -3809,7 +3865,7 @@
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
@@ -3818,7 +3874,7 @@
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
@@ -3827,7 +3883,7 @@
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
@@ -3836,7 +3892,7 @@
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
@@ -3845,7 +3901,7 @@
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
@@ -3854,7 +3910,7 @@
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
@@ -3863,7 +3919,7 @@
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
@@ -3872,7 +3928,7 @@
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
@@ -3881,7 +3937,7 @@
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
@@ -3890,7 +3946,7 @@
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
@@ -3899,7 +3955,7 @@
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
@@ -3908,7 +3964,7 @@
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
@@ -3917,7 +3973,7 @@
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
@@ -3926,7 +3982,7 @@
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
@@ -3935,7 +3991,7 @@
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
@@ -3944,7 +4000,7 @@
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
@@ -3953,7 +4009,7 @@
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
@@ -3962,7 +4018,7 @@
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
@@ -3971,7 +4027,7 @@
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
@@ -3980,7 +4036,7 @@
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
@@ -3989,7 +4045,7 @@
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
       </c>
-      <c r="B78" s="1"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
@@ -3998,7 +4054,7 @@
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
@@ -4007,7 +4063,7 @@
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
@@ -4016,7 +4072,7 @@
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
@@ -4025,7 +4081,7 @@
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
       </c>
-      <c r="B82" s="1"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
@@ -4034,7 +4090,7 @@
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
       </c>
-      <c r="B83" s="1"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
@@ -4043,7 +4099,7 @@
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
       </c>
-      <c r="B84" s="1"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
@@ -4052,7 +4108,7 @@
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
       </c>
-      <c r="B85" s="1"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
@@ -4061,7 +4117,7 @@
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
       </c>
-      <c r="B86" s="1"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
@@ -4070,7 +4126,7 @@
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
       </c>
-      <c r="B87" s="1"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
@@ -4079,7 +4135,7 @@
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
       </c>
-      <c r="B88" s="1"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
@@ -4088,7 +4144,7 @@
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
@@ -4097,7 +4153,7 @@
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
       </c>
-      <c r="B90" s="1"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
@@ -4106,7 +4162,7 @@
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
@@ -4115,7 +4171,7 @@
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -4124,7 +4180,7 @@
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
@@ -4133,7 +4189,7 @@
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
@@ -4142,7 +4198,7 @@
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
@@ -4151,7 +4207,7 @@
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
       </c>
-      <c r="B96" s="1"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
@@ -4160,7 +4216,7 @@
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
@@ -4169,7 +4225,7 @@
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
@@ -4178,7 +4234,7 @@
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
       </c>
-      <c r="B99" s="1"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
@@ -4187,7 +4243,7 @@
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
@@ -4196,7 +4252,7 @@
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
@@ -4217,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Test document/OSSimulator test case.xlsx
+++ b/Test document/OSSimulator test case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\OSSimulator\Test document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="12435" windowHeight="6990" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="12435" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Test classification" sheetId="2" r:id="rId1"/>
@@ -13,18 +18,16 @@
     <sheet name="Instruction functions" sheetId="4" r:id="rId4"/>
     <sheet name="Load file" sheetId="5" r:id="rId5"/>
     <sheet name="Timer" sheetId="6" r:id="rId6"/>
+    <sheet name="Utils" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Test itmes</t>
   </si>
   <si>
     <t>Load file</t>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>Instruction functions</t>
-  </si>
-  <si>
-    <t>Author</t>
   </si>
   <si>
     <t>Manh</t>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Test item</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Not pass</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
   </si>
 </sst>
 </file>
@@ -181,6 +205,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -228,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,122 +499,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(Memory!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Memory!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Memory!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(CPU!$G$3:$H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>CPU!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>CPU!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM('Instruction functions'!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'Instruction functions'!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>'Instruction functions'!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="1">
+        <f>SUM('Load file'!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'Load file'!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>'Load file'!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+      <c r="D8" s="1">
+        <f>SUM(Timer!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Timer!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Timer!$G$3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>IF(C7&lt;&gt;"",COUNTA($C$6:C6),"")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>IF(C8&lt;&gt;"",COUNTA($C$6:C7),"")</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>IF(C9&lt;&gt;"",COUNTA($C$6:C8),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
+        <f>IF(C10&lt;&gt;"",COUNTA($C$6:C9),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>IF(C11&lt;&gt;"",COUNTA($C$6:C10),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f>IF(C12&lt;&gt;"",COUNTA($C$6:C11),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f>IF(C13&lt;&gt;"",COUNTA($C$6:C12),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f>IF(C14&lt;&gt;"",COUNTA($C$6:C13),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>IF(C15&lt;&gt;"",COUNTA($C$6:C14),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
+        <f>IF(C16&lt;&gt;"",COUNTA($C$6:C15),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
+        <f>IF(C17&lt;&gt;"",COUNTA($C$6:C16),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
+        <f>IF(C18&lt;&gt;"",COUNTA($C$6:C17),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
+        <f>IF(C19&lt;&gt;"",COUNTA($C$6:C18),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
+        <f>IF(C20&lt;&gt;"",COUNTA($C$6:C19),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
+        <f>IF(C21&lt;&gt;"",COUNTA($C$6:C20),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
+        <f>IF(C22&lt;&gt;"",COUNTA($C$6:C21),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
+        <f>IF(C23&lt;&gt;"",COUNTA($C$6:C22),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>IF(C24&lt;&gt;"",COUNTA($C$6:C23),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
+        <f>IF(C25&lt;&gt;"",COUNTA($C$6:C24),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="str">
+        <f>IF(C26&lt;&gt;"",COUNTA($C$6:C25),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
+        <f>IF(C27&lt;&gt;"",COUNTA($C$6:C26),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="str">
+        <f>IF(C28&lt;&gt;"",COUNTA($C$6:C27),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
+        <f>IF(C29&lt;&gt;"",COUNTA($C$6:C28),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
+        <f>IF(C30&lt;&gt;"",COUNTA($C$6:C29),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="str">
+        <f>IF(C31&lt;&gt;"",COUNTA($C$6:C30),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
+        <f>IF(C32&lt;&gt;"",COUNTA($C$6:C31),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
+        <f>IF(C33&lt;&gt;"",COUNTA($C$6:C32),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="str">
+        <f>IF(C34&lt;&gt;"",COUNTA($C$6:C33),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="str">
+        <f>IF(C35&lt;&gt;"",COUNTA($C$6:C34),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="str">
+        <f>IF(C36&lt;&gt;"",COUNTA($C$6:C35),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="str">
+        <f>IF(C37&lt;&gt;"",COUNTA($C$6:C36),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="str">
+        <f>IF(C38&lt;&gt;"",COUNTA($C$6:C37),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="str">
+        <f>IF(C39&lt;&gt;"",COUNTA($C$6:C38),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
+        <f>IF(C40&lt;&gt;"",COUNTA($C$6:C39),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
+        <f>IF(C41&lt;&gt;"",COUNTA($C$6:C40),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
+        <f>IF(C42&lt;&gt;"",COUNTA($C$6:C41),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="str">
+        <f>IF(C43&lt;&gt;"",COUNTA($C$6:C42),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="str">
+        <f>IF(C44&lt;&gt;"",COUNTA($C$6:C43),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="str">
+        <f>IF(C45&lt;&gt;"",COUNTA($C$6:C44),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="str">
+        <f>IF(C46&lt;&gt;"",COUNTA($C$6:C45),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="str">
+        <f>IF(C47&lt;&gt;"",COUNTA($C$6:C46),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="str">
+        <f>IF(C48&lt;&gt;"",COUNTA($C$6:C47),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="str">
+        <f>IF(C49&lt;&gt;"",COUNTA($C$6:C48),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="str">
+        <f>IF(C50&lt;&gt;"",COUNTA($C$6:C49),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="str">
+        <f>IF(C51&lt;&gt;"",COUNTA($C$6:C50),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="str">
+        <f>IF(C52&lt;&gt;"",COUNTA($C$6:C51),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="str">
+        <f>IF(C53&lt;&gt;"",COUNTA($C$6:C52),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="str">
+        <f>IF(C54&lt;&gt;"",COUNTA($C$6:C53),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
+        <f>IF(C55&lt;&gt;"",COUNTA($C$6:C54),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
+        <f>IF(C56&lt;&gt;"",COUNTA($C$6:C55),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="str">
+        <f>IF(C57&lt;&gt;"",COUNTA($C$6:C56),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="str">
+        <f>IF(C58&lt;&gt;"",COUNTA($C$6:C57),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="str">
+        <f>IF(C59&lt;&gt;"",COUNTA($C$6:C58),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f>IF(C60&lt;&gt;"",COUNTA($C$6:C59),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="str">
+        <f>IF(C61&lt;&gt;"",COUNTA($C$6:C60),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="str">
+        <f>IF(C62&lt;&gt;"",COUNTA($C$6:C61),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f>IF(C63&lt;&gt;"",COUNTA($C$6:C62),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
+        <f>IF(C64&lt;&gt;"",COUNTA($C$6:C63),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="str">
+        <f>IF(C65&lt;&gt;"",COUNTA($C$6:C64),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="str">
+        <f>IF(C66&lt;&gt;"",COUNTA($C$6:C65),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="str">
+        <f>IF(C67&lt;&gt;"",COUNTA($C$6:C66),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="str">
+        <f>IF(C68&lt;&gt;"",COUNTA($C$6:C67),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="str">
+        <f>IF(C69&lt;&gt;"",COUNTA($C$6:C68),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="str">
+        <f>IF(C70&lt;&gt;"",COUNTA($C$6:C69),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
+        <f>IF(C71&lt;&gt;"",COUNTA($C$6:C70),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="str">
+        <f>IF(C72&lt;&gt;"",COUNTA($C$6:C71),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="str">
+        <f>IF(C73&lt;&gt;"",COUNTA($C$6:C72),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="str">
+        <f>IF(C74&lt;&gt;"",COUNTA($C$6:C73),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="str">
+        <f>IF(C75&lt;&gt;"",COUNTA($C$6:C74),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="str">
+        <f>IF(C76&lt;&gt;"",COUNTA($C$6:C75),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="str">
+        <f>IF(C77&lt;&gt;"",COUNTA($C$6:C76),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="str">
+        <f>IF(C78&lt;&gt;"",COUNTA($C$6:C77),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="str">
+        <f>IF(C79&lt;&gt;"",COUNTA($C$6:C78),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="str">
+        <f>IF(C80&lt;&gt;"",COUNTA($C$6:C79),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="str">
+        <f>IF(C81&lt;&gt;"",COUNTA($C$6:C80),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="str">
+        <f>IF(C82&lt;&gt;"",COUNTA($C$6:C81),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="str">
+        <f>IF(C83&lt;&gt;"",COUNTA($C$6:C82),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
+        <f>IF(C84&lt;&gt;"",COUNTA($C$6:C83),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="str">
+        <f>IF(C85&lt;&gt;"",COUNTA($C$6:C84),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
+        <f>IF(C86&lt;&gt;"",COUNTA($C$6:C85),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="str">
+        <f>IF(C87&lt;&gt;"",COUNTA($C$6:C86),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
+        <f>IF(C88&lt;&gt;"",COUNTA($C$6:C87),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
+        <f>IF(C89&lt;&gt;"",COUNTA($C$6:C88),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f>IF(C90&lt;&gt;"",COUNTA($C$6:C89),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f>IF(C91&lt;&gt;"",COUNTA($C$6:C90),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
+        <f>IF(C92&lt;&gt;"",COUNTA($C$6:C91),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="str">
+        <f>IF(C93&lt;&gt;"",COUNTA($C$6:C92),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
+        <f>IF(C94&lt;&gt;"",COUNTA($C$6:C93),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
+        <f>IF(C95&lt;&gt;"",COUNTA($C$6:C94),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f>IF(C96&lt;&gt;"",COUNTA($C$6:C95),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
+        <f>IF(C97&lt;&gt;"",COUNTA($C$6:C96),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f>IF(C98&lt;&gt;"",COUNTA($C$6:C97),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
+        <f>IF(C99&lt;&gt;"",COUNTA($C$6:C98),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f>IF(C100&lt;&gt;"",COUNTA($C$6:C99),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f>IF(C101&lt;&gt;"",COUNTA($C$6:C100),"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -595,8 +1732,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -604,8 +1742,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -613,8 +1752,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -622,8 +1762,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -631,8 +1772,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -640,8 +1782,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -649,8 +1792,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -658,8 +1802,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -667,8 +1812,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -676,8 +1822,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -685,8 +1832,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -694,8 +1842,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -703,8 +1852,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -712,8 +1862,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -721,8 +1872,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -730,8 +1882,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -739,8 +1892,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -748,8 +1902,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -757,8 +1912,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -766,8 +1922,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -775,8 +1932,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -784,8 +1942,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -793,8 +1952,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -802,8 +1962,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -811,8 +1972,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -820,8 +1982,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -829,8 +1992,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -838,8 +2002,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -847,8 +2012,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -856,8 +2022,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -865,8 +2032,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -874,8 +2042,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -883,8 +2052,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -892,8 +2062,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -901,8 +2072,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -910,8 +2082,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -919,8 +2092,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -928,8 +2102,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -937,8 +2112,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -946,8 +2122,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -955,8 +2132,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -964,8 +2142,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -973,8 +2152,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -982,8 +2162,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -991,8 +2172,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -1000,8 +2182,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -1009,8 +2192,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -1018,8 +2202,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -1027,8 +2212,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -1036,8 +2222,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -1045,8 +2232,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -1054,8 +2242,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -1063,8 +2252,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -1072,8 +2262,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -1081,8 +2272,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -1090,8 +2282,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -1099,8 +2292,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -1108,8 +2302,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -1117,8 +2312,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -1126,8 +2322,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -1135,8 +2332,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -1144,8 +2342,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -1153,8 +2352,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -1162,8 +2362,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -1171,8 +2372,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -1180,8 +2382,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -1189,8 +2392,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -1198,8 +2402,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -1207,8 +2412,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -1216,8 +2422,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -1225,8 +2432,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -1234,8 +2442,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -1243,8 +2452,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -1252,8 +2462,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -1261,8 +2472,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -1270,8 +2482,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -1279,8 +2492,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -1288,8 +2502,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -1297,8 +2512,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -1306,8 +2522,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -1315,8 +2532,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -1324,8 +2542,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -1333,8 +2552,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -1342,8 +2562,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -1351,8 +2572,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -1360,8 +2582,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -1369,8 +2592,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -1378,8 +2602,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -1387,8 +2612,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -1396,8 +2622,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -1405,8 +2632,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -1414,8 +2642,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -1423,8 +2652,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -1432,8 +2662,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -1441,73 +2672,89 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -1515,8 +2762,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -1524,8 +2772,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -1533,8 +2782,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -1542,8 +2792,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -1551,8 +2802,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -1560,8 +2812,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -1569,8 +2822,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -1578,8 +2832,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -1587,8 +2842,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -1596,8 +2852,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -1605,8 +2862,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -1614,8 +2872,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -1623,8 +2882,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -1632,8 +2892,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -1641,8 +2902,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -1650,8 +2912,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -1659,8 +2922,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -1668,8 +2932,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -1677,8 +2942,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -1686,8 +2952,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -1695,8 +2962,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -1704,8 +2972,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -1713,8 +2982,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -1722,8 +2992,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -1731,8 +3002,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -1740,8 +3012,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -1749,8 +3022,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -1758,8 +3032,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -1767,8 +3042,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -1776,8 +3052,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -1785,8 +3062,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -1794,8 +3072,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -1803,8 +3082,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -1812,8 +3092,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -1821,8 +3102,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -1830,8 +3112,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -1839,8 +3122,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -1848,8 +3132,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -1857,8 +3142,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -1866,8 +3152,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -1875,8 +3162,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -1884,8 +3172,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -1893,8 +3182,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -1902,8 +3192,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -1911,8 +3202,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -1920,8 +3212,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -1929,8 +3222,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -1938,8 +3232,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -1947,8 +3242,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -1956,8 +3252,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -1965,8 +3262,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -1974,8 +3272,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -1983,8 +3282,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -1992,8 +3292,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -2001,8 +3302,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -2010,8 +3312,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -2019,8 +3322,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -2028,8 +3332,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -2037,8 +3342,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -2046,8 +3352,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -2055,8 +3362,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -2064,8 +3372,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -2073,8 +3382,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -2082,8 +3392,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -2091,8 +3402,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -2100,8 +3412,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -2109,8 +3422,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -2118,8 +3432,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -2127,8 +3442,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -2136,8 +3452,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -2145,8 +3462,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -2154,8 +3472,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -2163,8 +3482,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -2172,8 +3492,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -2181,8 +3502,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -2190,8 +3512,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -2199,8 +3522,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -2208,8 +3532,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -2217,8 +3542,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -2226,8 +3552,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -2235,8 +3562,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -2244,8 +3572,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -2253,8 +3582,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -2262,8 +3592,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -2271,8 +3602,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -2280,8 +3612,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -2289,8 +3622,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -2298,8 +3632,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -2307,8 +3642,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -2316,8 +3652,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -2325,8 +3662,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -2334,8 +3672,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -2343,8 +3682,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -2352,8 +3692,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -2361,72 +3702,89 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -2434,8 +3792,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -2443,8 +3802,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -2452,8 +3812,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -2461,8 +3822,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -2470,8 +3832,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -2479,8 +3842,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -2488,8 +3852,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -2497,8 +3862,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -2506,8 +3872,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -2515,8 +3882,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -2524,8 +3892,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -2533,8 +3902,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -2542,8 +3912,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -2551,8 +3922,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -2560,8 +3932,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -2569,8 +3942,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -2578,8 +3952,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -2587,8 +3962,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -2596,8 +3972,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -2605,8 +3982,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -2614,8 +3992,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -2623,8 +4002,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -2632,8 +4012,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -2641,8 +4022,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -2650,8 +4032,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -2659,8 +4042,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -2668,8 +4052,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -2677,8 +4062,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -2686,8 +4072,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -2695,8 +4082,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -2704,8 +4092,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -2713,8 +4102,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -2722,8 +4112,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -2731,8 +4122,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -2740,8 +4132,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -2749,8 +4142,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -2758,8 +4152,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -2767,8 +4162,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -2776,8 +4172,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -2785,8 +4182,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -2794,8 +4192,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -2803,8 +4202,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -2812,8 +4212,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -2821,8 +4222,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -2830,8 +4232,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -2839,8 +4242,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -2848,8 +4252,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -2857,8 +4262,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -2866,8 +4272,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -2875,8 +4282,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -2884,8 +4292,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -2893,8 +4302,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -2902,8 +4312,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -2911,8 +4322,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -2920,8 +4332,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -2929,8 +4342,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -2938,8 +4352,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -2947,8 +4362,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -2956,8 +4372,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -2965,8 +4382,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -2974,8 +4392,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -2983,8 +4402,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -2992,8 +4412,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -3001,8 +4422,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -3010,8 +4432,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -3019,8 +4442,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -3028,8 +4452,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -3037,8 +4462,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -3046,8 +4472,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -3055,8 +4482,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -3064,8 +4492,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -3073,8 +4502,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -3082,8 +4512,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -3091,8 +4522,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -3100,8 +4532,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -3109,8 +4542,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -3118,8 +4552,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -3127,8 +4562,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -3136,8 +4572,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -3145,8 +4582,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -3154,8 +4592,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -3163,8 +4602,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -3172,8 +4612,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -3181,8 +4622,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -3190,8 +4632,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -3199,8 +4642,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -3208,8 +4652,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -3217,8 +4662,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -3226,8 +4672,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -3235,8 +4682,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -3244,8 +4692,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -3253,8 +4702,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -3262,8 +4712,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -3271,8 +4722,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -3280,72 +4732,89 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -3353,8 +4822,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -3362,8 +4832,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -3371,8 +4842,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -3380,8 +4852,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -3389,8 +4862,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -3398,8 +4872,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -3407,8 +4882,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -3416,8 +4892,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -3425,8 +4902,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -3434,8 +4912,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -3443,8 +4922,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -3452,8 +4932,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -3461,8 +4942,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -3470,8 +4952,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -3479,8 +4962,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -3488,8 +4972,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -3497,8 +4982,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -3506,8 +4992,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -3515,8 +5002,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -3524,8 +5012,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -3533,8 +5022,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -3542,8 +5032,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -3551,8 +5042,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -3560,8 +5052,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -3569,8 +5062,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -3578,8 +5072,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -3587,8 +5082,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -3596,8 +5092,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -3605,8 +5102,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -3614,8 +5112,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -3623,8 +5122,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -3632,8 +5132,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -3641,8 +5142,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -3650,8 +5152,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -3659,8 +5162,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -3668,8 +5172,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -3677,8 +5182,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -3686,8 +5192,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -3695,8 +5202,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -3704,8 +5212,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -3713,8 +5222,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -3722,8 +5232,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -3731,8 +5242,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -3740,8 +5252,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -3749,8 +5262,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -3758,8 +5272,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -3767,8 +5282,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -3776,8 +5292,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -3785,8 +5302,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -3794,8 +5312,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -3803,8 +5322,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -3812,8 +5332,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -3821,8 +5342,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -3830,8 +5352,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -3839,8 +5362,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -3848,8 +5372,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -3857,8 +5382,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -3866,8 +5392,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -3875,8 +5402,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -3884,8 +5412,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -3893,8 +5422,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -3902,8 +5432,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -3911,8 +5442,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -3920,8 +5452,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -3929,8 +5462,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -3938,8 +5472,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -3947,8 +5482,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -3956,8 +5492,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -3965,8 +5502,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -3974,8 +5512,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -3983,8 +5522,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -3992,8 +5532,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -4001,8 +5542,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -4010,8 +5552,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -4019,8 +5562,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -4028,8 +5572,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -4037,8 +5582,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -4046,8 +5592,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -4055,8 +5602,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -4064,8 +5612,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -4073,8 +5622,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -4082,8 +5632,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -4091,8 +5642,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -4100,8 +5652,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -4109,8 +5662,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -4118,8 +5672,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -4127,8 +5682,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -4136,8 +5692,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -4145,8 +5702,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -4154,8 +5712,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -4163,8 +5722,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -4172,8 +5732,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -4181,8 +5742,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -4190,8 +5752,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -4199,935 +5762,68 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="B3:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
-        <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
-        <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
-        <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
-        <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
-        <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
-        <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
-        <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
-        <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
-        <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
-        <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
-        <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
-        <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
-        <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="str">
-        <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="str">
-        <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
-        <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
-        <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
-        <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
-        <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
-        <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="str">
-        <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="str">
-        <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="str">
-        <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="str">
-        <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="str">
-        <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="str">
-        <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
-        <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
-        <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="str">
-        <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="str">
-        <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="str">
-        <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="str">
-        <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="str">
-        <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="str">
-        <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="str">
-        <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="str">
-        <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="str">
-        <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="str">
-        <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="str">
-        <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="str">
-        <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
-        <v/>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
-        <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
-        <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="str">
-        <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="str">
-        <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="str">
-        <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
-        <v/>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
-        <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
-        <v/>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="str">
-        <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
-        <v/>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
-        <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="str">
-        <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
-        <v/>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
-        <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
-        <v/>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
-        <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
-        <v/>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="str">
-        <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="str">
-        <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
-        <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
-        <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="str">
-        <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
-        <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="str">
-        <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="str">
-        <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="str">
-        <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="str">
-        <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="str">
-        <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="str">
-        <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="str">
-        <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="str">
-        <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="str">
-        <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
-        <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
-        <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="str">
-        <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="str">
-        <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="str">
-        <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="str">
-        <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="str">
-        <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
-        <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="str">
-        <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="str">
-        <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="str">
-        <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="str">
-        <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="str">
-        <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="str">
-        <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
-        <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="str">
-        <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
-        <v/>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
-        <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
-        <v/>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
-        <v/>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="str">
-        <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
-        <v/>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="str">
-        <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
-        <v/>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="str">
-        <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
-        <v/>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="str">
-        <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
-        <v/>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="str">
-        <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
-        <v/>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
-        <v/>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="str">
-        <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
-        <v/>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="str">
-        <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
-        <v/>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="str">
-        <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
-        <v/>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
-      <formula1>"OK,NG"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test document/OSSimulator test case.xlsx
+++ b/Test document/OSSimulator test case.xlsx
@@ -13,18 +13,16 @@
     <sheet name="Instruction functions" sheetId="4" r:id="rId4"/>
     <sheet name="Load file" sheetId="5" r:id="rId5"/>
     <sheet name="Timer" sheetId="6" r:id="rId6"/>
+    <sheet name="Utils" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Test itmes</t>
   </si>
   <si>
     <t>Load file</t>
@@ -40,9 +38,6 @@
   </si>
   <si>
     <t>Instruction functions</t>
-  </si>
-  <si>
-    <t>Author</t>
   </si>
   <si>
     <t>Manh</t>
@@ -72,6 +67,30 @@
     <t>Summary</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Test item</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Not pass</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
     <t>File not found</t>
   </si>
   <si>
@@ -90,14 +109,59 @@
     <t xml:space="preserve">Read line with begin by a period followed by character </t>
   </si>
   <si>
-    <t>1
-100</t>
+    <t>check domain of time</t>
   </si>
   <si>
-    <t>.1000 //change store addres to 1000</t>
+    <t>check interrupts disabled during interrupt processing</t>
   </si>
   <si>
-    <t>.abc //invalid</t>
+    <t>check interrupt of timer</t>
+  </si>
+  <si>
+    <t>check interrupt of system</t>
+  </si>
+  <si>
+    <t>set timer = 0 =&gt; error</t>
+  </si>
+  <si>
+    <t>set timer = 5, instruction set include "int" instuction at 5th. =&gt; system interrupt will first execute. Then timer should be disable.</t>
+  </si>
+  <si>
+    <t>excute at address 1000</t>
+  </si>
+  <si>
+    <t>excute at address 1500</t>
+  </si>
+  <si>
+    <t>delete program file =&gt; "File not found" message is displayed.</t>
+  </si>
+  <si>
+    <t>set permisstion for program file =&gt; "Access deny" message is displayed.</t>
+  </si>
+  <si>
+    <t>program file: …
+1
+55
+=&gt; error load address. Exit</t>
+  </si>
+  <si>
+    <t>program file: …
+.1000
+1
+=&gt; load 1 at address 1000</t>
+  </si>
+  <si>
+    <t>program file:..
+1
+99
+=&gt; load success</t>
+  </si>
+  <si>
+    <t>program file:..
+.abc
+1
+99
+=&gt; load success</t>
   </si>
 </sst>
 </file>
@@ -188,16 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,10 +266,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +281,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -510,122 +576,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(Memory!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Memory!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Memory!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(CPU!$G$3:$H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>CPU!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>CPU!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM('Instruction functions'!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'Instruction functions'!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>'Instruction functions'!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="1">
+        <f>SUM('Load file'!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'Load file'!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>'Load file'!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+      <c r="D8" s="1">
+        <f>SUM(Timer!$F$3:$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Timer!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Timer!$G$3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>IF(C7&lt;&gt;"",COUNTA($C$6:C6),"")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>IF(C8&lt;&gt;"",COUNTA($C$6:C7),"")</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>IF(C9&lt;&gt;"",COUNTA($C$6:C8),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
+        <f>IF(C10&lt;&gt;"",COUNTA($C$6:C9),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>IF(C11&lt;&gt;"",COUNTA($C$6:C10),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f>IF(C12&lt;&gt;"",COUNTA($C$6:C11),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f>IF(C13&lt;&gt;"",COUNTA($C$6:C12),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f>IF(C14&lt;&gt;"",COUNTA($C$6:C13),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>IF(C15&lt;&gt;"",COUNTA($C$6:C14),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
+        <f>IF(C16&lt;&gt;"",COUNTA($C$6:C15),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
+        <f>IF(C17&lt;&gt;"",COUNTA($C$6:C16),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
+        <f>IF(C18&lt;&gt;"",COUNTA($C$6:C17),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
+        <f>IF(C19&lt;&gt;"",COUNTA($C$6:C18),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
+        <f>IF(C20&lt;&gt;"",COUNTA($C$6:C19),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
+        <f>IF(C21&lt;&gt;"",COUNTA($C$6:C20),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
+        <f>IF(C22&lt;&gt;"",COUNTA($C$6:C21),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
+        <f>IF(C23&lt;&gt;"",COUNTA($C$6:C22),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>IF(C24&lt;&gt;"",COUNTA($C$6:C23),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
+        <f>IF(C25&lt;&gt;"",COUNTA($C$6:C24),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="str">
+        <f>IF(C26&lt;&gt;"",COUNTA($C$6:C25),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
+        <f>IF(C27&lt;&gt;"",COUNTA($C$6:C26),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="str">
+        <f>IF(C28&lt;&gt;"",COUNTA($C$6:C27),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
+        <f>IF(C29&lt;&gt;"",COUNTA($C$6:C28),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
+        <f>IF(C30&lt;&gt;"",COUNTA($C$6:C29),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="str">
+        <f>IF(C31&lt;&gt;"",COUNTA($C$6:C30),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
+        <f>IF(C32&lt;&gt;"",COUNTA($C$6:C31),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
+        <f>IF(C33&lt;&gt;"",COUNTA($C$6:C32),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="str">
+        <f>IF(C34&lt;&gt;"",COUNTA($C$6:C33),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="str">
+        <f>IF(C35&lt;&gt;"",COUNTA($C$6:C34),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="str">
+        <f>IF(C36&lt;&gt;"",COUNTA($C$6:C35),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="str">
+        <f>IF(C37&lt;&gt;"",COUNTA($C$6:C36),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="str">
+        <f>IF(C38&lt;&gt;"",COUNTA($C$6:C37),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="str">
+        <f>IF(C39&lt;&gt;"",COUNTA($C$6:C38),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
+        <f>IF(C40&lt;&gt;"",COUNTA($C$6:C39),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
+        <f>IF(C41&lt;&gt;"",COUNTA($C$6:C40),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
+        <f>IF(C42&lt;&gt;"",COUNTA($C$6:C41),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="str">
+        <f>IF(C43&lt;&gt;"",COUNTA($C$6:C42),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="str">
+        <f>IF(C44&lt;&gt;"",COUNTA($C$6:C43),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="str">
+        <f>IF(C45&lt;&gt;"",COUNTA($C$6:C44),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="str">
+        <f>IF(C46&lt;&gt;"",COUNTA($C$6:C45),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="str">
+        <f>IF(C47&lt;&gt;"",COUNTA($C$6:C46),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="str">
+        <f>IF(C48&lt;&gt;"",COUNTA($C$6:C47),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="str">
+        <f>IF(C49&lt;&gt;"",COUNTA($C$6:C48),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="str">
+        <f>IF(C50&lt;&gt;"",COUNTA($C$6:C49),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="str">
+        <f>IF(C51&lt;&gt;"",COUNTA($C$6:C50),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="str">
+        <f>IF(C52&lt;&gt;"",COUNTA($C$6:C51),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="str">
+        <f>IF(C53&lt;&gt;"",COUNTA($C$6:C52),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="str">
+        <f>IF(C54&lt;&gt;"",COUNTA($C$6:C53),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
+        <f>IF(C55&lt;&gt;"",COUNTA($C$6:C54),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
+        <f>IF(C56&lt;&gt;"",COUNTA($C$6:C55),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="str">
+        <f>IF(C57&lt;&gt;"",COUNTA($C$6:C56),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="str">
+        <f>IF(C58&lt;&gt;"",COUNTA($C$6:C57),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="str">
+        <f>IF(C59&lt;&gt;"",COUNTA($C$6:C58),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f>IF(C60&lt;&gt;"",COUNTA($C$6:C59),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="str">
+        <f>IF(C61&lt;&gt;"",COUNTA($C$6:C60),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="str">
+        <f>IF(C62&lt;&gt;"",COUNTA($C$6:C61),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f>IF(C63&lt;&gt;"",COUNTA($C$6:C62),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
+        <f>IF(C64&lt;&gt;"",COUNTA($C$6:C63),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="str">
+        <f>IF(C65&lt;&gt;"",COUNTA($C$6:C64),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="str">
+        <f>IF(C66&lt;&gt;"",COUNTA($C$6:C65),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="str">
+        <f>IF(C67&lt;&gt;"",COUNTA($C$6:C66),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="str">
+        <f>IF(C68&lt;&gt;"",COUNTA($C$6:C67),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="str">
+        <f>IF(C69&lt;&gt;"",COUNTA($C$6:C68),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="str">
+        <f>IF(C70&lt;&gt;"",COUNTA($C$6:C69),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
+        <f>IF(C71&lt;&gt;"",COUNTA($C$6:C70),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="str">
+        <f>IF(C72&lt;&gt;"",COUNTA($C$6:C71),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="str">
+        <f>IF(C73&lt;&gt;"",COUNTA($C$6:C72),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="str">
+        <f>IF(C74&lt;&gt;"",COUNTA($C$6:C73),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="str">
+        <f>IF(C75&lt;&gt;"",COUNTA($C$6:C74),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="str">
+        <f>IF(C76&lt;&gt;"",COUNTA($C$6:C75),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="str">
+        <f>IF(C77&lt;&gt;"",COUNTA($C$6:C76),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="str">
+        <f>IF(C78&lt;&gt;"",COUNTA($C$6:C77),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="str">
+        <f>IF(C79&lt;&gt;"",COUNTA($C$6:C78),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="str">
+        <f>IF(C80&lt;&gt;"",COUNTA($C$6:C79),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="str">
+        <f>IF(C81&lt;&gt;"",COUNTA($C$6:C80),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="str">
+        <f>IF(C82&lt;&gt;"",COUNTA($C$6:C81),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="str">
+        <f>IF(C83&lt;&gt;"",COUNTA($C$6:C82),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
+        <f>IF(C84&lt;&gt;"",COUNTA($C$6:C83),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="str">
+        <f>IF(C85&lt;&gt;"",COUNTA($C$6:C84),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
+        <f>IF(C86&lt;&gt;"",COUNTA($C$6:C85),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="str">
+        <f>IF(C87&lt;&gt;"",COUNTA($C$6:C86),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
+        <f>IF(C88&lt;&gt;"",COUNTA($C$6:C87),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
+        <f>IF(C89&lt;&gt;"",COUNTA($C$6:C88),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f>IF(C90&lt;&gt;"",COUNTA($C$6:C89),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f>IF(C91&lt;&gt;"",COUNTA($C$6:C90),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
+        <f>IF(C92&lt;&gt;"",COUNTA($C$6:C91),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="str">
+        <f>IF(C93&lt;&gt;"",COUNTA($C$6:C92),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
+        <f>IF(C94&lt;&gt;"",COUNTA($C$6:C93),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
+        <f>IF(C95&lt;&gt;"",COUNTA($C$6:C94),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f>IF(C96&lt;&gt;"",COUNTA($C$6:C95),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
+        <f>IF(C97&lt;&gt;"",COUNTA($C$6:C96),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f>IF(C98&lt;&gt;"",COUNTA($C$6:C97),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
+        <f>IF(C99&lt;&gt;"",COUNTA($C$6:C98),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f>IF(C100&lt;&gt;"",COUNTA($C$6:C99),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f>IF(C101&lt;&gt;"",COUNTA($C$6:C100),"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -633,8 +1809,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -642,8 +1819,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -651,8 +1829,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -660,8 +1839,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -669,8 +1849,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -678,8 +1859,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -687,8 +1869,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -696,8 +1879,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -705,8 +1889,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -714,8 +1899,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -723,8 +1909,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -732,8 +1919,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -741,8 +1929,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -750,8 +1939,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -759,8 +1949,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -768,8 +1959,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -777,8 +1969,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -786,8 +1979,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -795,8 +1989,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -804,8 +1999,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -813,8 +2009,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -822,8 +2019,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -831,8 +2029,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -840,8 +2039,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -849,8 +2049,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -858,8 +2059,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -867,8 +2069,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -876,8 +2079,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -885,8 +2089,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -894,8 +2099,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -903,8 +2109,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -912,8 +2119,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -921,8 +2129,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -930,8 +2139,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -939,8 +2149,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -948,8 +2159,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -957,8 +2169,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -966,8 +2179,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -975,8 +2189,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -984,8 +2199,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -993,8 +2209,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -1002,8 +2219,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -1011,8 +2229,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -1020,8 +2239,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -1029,8 +2249,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -1038,8 +2259,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -1047,8 +2269,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -1056,8 +2279,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -1065,8 +2289,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -1074,8 +2299,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -1083,8 +2309,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -1092,8 +2319,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -1101,8 +2329,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -1110,8 +2339,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -1119,8 +2349,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -1128,8 +2359,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -1137,8 +2369,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -1146,8 +2379,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -1155,8 +2389,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -1164,8 +2399,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -1173,8 +2409,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -1182,8 +2419,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -1191,8 +2429,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -1200,8 +2439,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -1209,8 +2449,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -1218,8 +2459,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -1227,8 +2469,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -1236,8 +2479,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -1245,8 +2489,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -1254,8 +2499,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -1263,8 +2509,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -1272,8 +2519,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -1281,8 +2529,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -1290,8 +2539,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -1299,8 +2549,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -1308,8 +2559,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -1317,8 +2569,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -1326,8 +2579,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -1335,8 +2589,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -1344,8 +2599,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -1353,8 +2609,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -1362,8 +2619,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -1371,8 +2629,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -1380,8 +2639,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -1389,8 +2649,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -1398,8 +2659,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -1407,8 +2669,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -1416,8 +2679,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -1425,8 +2689,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -1434,8 +2699,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -1443,8 +2709,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -1452,8 +2719,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -1461,8 +2729,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -1470,8 +2739,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -1479,73 +2749,89 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v/>
@@ -1553,8 +2839,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v/>
@@ -1562,8 +2849,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v/>
@@ -1571,8 +2859,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v/>
@@ -1580,8 +2869,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
         <v/>
@@ -1589,8 +2879,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
         <v/>
@@ -1598,8 +2889,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -1607,8 +2899,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -1616,8 +2909,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -1625,8 +2919,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -1634,8 +2929,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -1643,8 +2939,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -1652,8 +2949,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -1661,8 +2959,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -1670,8 +2969,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -1679,8 +2979,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -1688,8 +2989,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -1697,8 +2999,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -1706,8 +3009,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -1715,8 +3019,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -1724,8 +3029,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -1733,8 +3039,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -1742,8 +3049,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -1751,8 +3059,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -1760,8 +3069,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -1769,8 +3079,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -1778,8 +3089,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -1787,8 +3099,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -1796,8 +3109,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -1805,8 +3119,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -1814,8 +3129,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -1823,8 +3139,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -1832,8 +3149,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -1841,8 +3159,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -1850,8 +3169,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -1859,8 +3179,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -1868,8 +3189,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -1877,8 +3199,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -1886,8 +3209,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -1895,8 +3219,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -1904,8 +3229,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -1913,8 +3239,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -1922,8 +3249,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -1931,8 +3259,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -1940,8 +3269,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -1949,8 +3279,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -1958,8 +3289,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -1967,8 +3299,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -1976,8 +3309,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -1985,8 +3319,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -1994,8 +3329,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -2003,8 +3339,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -2012,8 +3349,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -2021,8 +3359,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -2030,8 +3369,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -2039,8 +3379,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -2048,8 +3389,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -2057,8 +3399,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -2066,8 +3409,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -2075,8 +3419,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -2084,8 +3429,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -2093,8 +3439,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -2102,8 +3449,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -2111,8 +3459,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -2120,8 +3469,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -2129,8 +3479,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -2138,8 +3489,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -2147,8 +3499,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -2156,8 +3509,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -2165,8 +3519,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -2174,8 +3529,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -2183,8 +3539,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -2192,8 +3549,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -2201,8 +3559,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -2210,8 +3569,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -2219,8 +3579,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -2228,8 +3589,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -2237,8 +3599,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -2246,8 +3609,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -2255,8 +3619,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -2264,8 +3629,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -2273,8 +3639,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -2282,8 +3649,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -2291,8 +3659,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -2300,8 +3669,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -2309,8 +3679,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -2318,8 +3689,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -2327,8 +3699,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -2336,8 +3709,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -2345,8 +3719,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -2354,8 +3729,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -2363,8 +3739,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -2372,8 +3749,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -2381,8 +3759,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -2390,8 +3769,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -2399,126 +3779,185 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
@@ -2526,8 +3965,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
@@ -2535,8 +3975,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
@@ -2544,8 +3985,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
@@ -2553,8 +3995,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
@@ -2562,8 +4005,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
@@ -2571,8 +4015,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
@@ -2580,8 +4025,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
@@ -2589,8 +4035,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
@@ -2598,8 +4045,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
@@ -2607,8 +4055,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
@@ -2616,8 +4065,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
@@ -2625,8 +4075,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
@@ -2634,8 +4085,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
@@ -2643,8 +4095,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
@@ -2652,8 +4105,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
@@ -2661,8 +4115,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
@@ -2670,8 +4125,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
@@ -2679,8 +4135,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
@@ -2688,8 +4145,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
@@ -2697,8 +4155,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
@@ -2706,8 +4165,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
@@ -2715,8 +4175,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
@@ -2724,8 +4185,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
@@ -2733,8 +4195,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
@@ -2742,8 +4205,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
@@ -2751,8 +4215,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
@@ -2760,8 +4225,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
@@ -2769,8 +4235,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
@@ -2778,8 +4245,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
@@ -2787,8 +4255,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
@@ -2796,8 +4265,9 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
@@ -2805,8 +4275,9 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
@@ -2814,8 +4285,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
@@ -2823,8 +4295,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
@@ -2832,8 +4305,9 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
@@ -2841,8 +4315,9 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
@@ -2850,8 +4325,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
@@ -2859,8 +4335,9 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
@@ -2868,8 +4345,9 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
@@ -2877,8 +4355,9 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
@@ -2886,8 +4365,9 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
@@ -2895,8 +4375,9 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
@@ -2904,8 +4385,9 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
@@ -2913,8 +4395,9 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
@@ -2922,8 +4405,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
@@ -2931,8 +4415,9 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
@@ -2940,8 +4425,9 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
@@ -2949,8 +4435,9 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
@@ -2958,8 +4445,9 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
@@ -2967,8 +4455,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
@@ -2976,8 +4465,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
@@ -2985,8 +4475,9 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
@@ -2994,8 +4485,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
@@ -3003,8 +4495,9 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
@@ -3012,8 +4505,9 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
@@ -3021,8 +4515,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
@@ -3030,8 +4525,9 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
@@ -3039,8 +4535,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
@@ -3048,8 +4545,9 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
@@ -3057,8 +4555,9 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
@@ -3066,8 +4565,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
@@ -3075,8 +4575,9 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
@@ -3084,8 +4585,9 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
@@ -3093,8 +4595,9 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
@@ -3102,8 +4605,9 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
@@ -3111,8 +4615,9 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
@@ -3120,8 +4625,9 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
@@ -3129,8 +4635,9 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
@@ -3138,8 +4645,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
@@ -3147,8 +4655,9 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
@@ -3156,8 +4665,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
@@ -3165,8 +4675,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
@@ -3174,8 +4685,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
@@ -3183,8 +4695,9 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
@@ -3192,8 +4705,9 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
@@ -3201,8 +4715,9 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
@@ -3210,8 +4725,9 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
@@ -3219,8 +4735,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
@@ -3228,8 +4745,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
@@ -3237,8 +4755,9 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
@@ -3246,8 +4765,9 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
@@ -3255,8 +4775,9 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
@@ -3264,8 +4785,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
@@ -3273,8 +4795,9 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
@@ -3282,8 +4805,9 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
@@ -3291,8 +4815,9 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
@@ -3300,8 +4825,9 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
@@ -3309,8 +4835,9 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
@@ -3318,1872 +4845,1122 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1">
+        <f>COUNTIF(E7:E345,"OK")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
+      <c r="G3" s="1">
+        <f>COUNTIF(E7:E345,"NG")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
         <v/>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
         <v/>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
         <v/>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
         <v/>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
         <v/>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
         <v/>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
         <v/>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
         <v/>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
         <v/>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
         <v/>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
         <v/>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
         <v/>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
         <v/>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
         <v/>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
         <v/>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
         <v/>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
         <v/>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
         <v/>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
         <v/>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
         <v/>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
         <v/>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
         <v/>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
         <v/>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
         <v/>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
         <v/>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
         <v/>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
         <v/>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
         <v/>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
         <v/>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
         <v/>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
         <v/>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
         <v/>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
         <v/>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
         <v/>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
         <v/>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
         <v/>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
         <v/>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
         <v/>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
         <v/>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
         <v/>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
         <v/>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
         <v/>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
         <v/>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
         <v/>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
         <v/>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
         <v/>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
         <v/>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
         <v/>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
         <v/>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
         <v/>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
         <v/>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
         <v/>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
         <v/>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
         <v/>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
         <v/>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
         <v/>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
         <v/>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
         <v/>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
         <v/>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
         <v/>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
         <v/>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
         <v/>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
         <v/>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
         <v/>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
         <v/>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
         <v/>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
         <v/>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
         <v/>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
         <v/>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
         <v/>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
         <v/>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
         <v/>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
         <v/>
       </c>
-      <c r="B85" s="8"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
         <v/>
       </c>
-      <c r="B86" s="8"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
         <v/>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
         <v/>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
         <v/>
       </c>
-      <c r="B89" s="8"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
         <v/>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
         <v/>
       </c>
-      <c r="B91" s="8"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
         <v/>
       </c>
-      <c r="B92" s="8"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
         <v/>
       </c>
-      <c r="B93" s="8"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="4"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
         <v/>
       </c>
-      <c r="B94" s="8"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="4"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
         <v/>
       </c>
-      <c r="B95" s="8"/>
+      <c r="B95" s="4"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="4"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
         <v/>
       </c>
-      <c r="B96" s="8"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
         <v/>
       </c>
-      <c r="B97" s="8"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
         <v/>
       </c>
-      <c r="B98" s="8"/>
+      <c r="B98" s="4"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
         <v/>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="4"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
         <v/>
       </c>
-      <c r="B100" s="8"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="4"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
         <v/>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E2258">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Utils!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="1">
-        <f>COUNTIF(D7:D345,"OK")</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <f>COUNTIF(D7:D345,"NG")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
-        <f>IF(B7&lt;&gt;"",COUNTA($B$6:B6),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
-        <f>IF(B8&lt;&gt;"",COUNTA($B$6:B7),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
-        <f>IF(B9&lt;&gt;"",COUNTA($B$6:B8),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
-        <f>IF(B10&lt;&gt;"",COUNTA($B$6:B9),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
-        <f>IF(B11&lt;&gt;"",COUNTA($B$6:B10),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
-        <f>IF(B12&lt;&gt;"",COUNTA($B$6:B11),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
-        <f>IF(B13&lt;&gt;"",COUNTA($B$6:B12),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
-        <f>IF(B14&lt;&gt;"",COUNTA($B$6:B13),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
-        <f>IF(B15&lt;&gt;"",COUNTA($B$6:B14),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
-        <f>IF(B16&lt;&gt;"",COUNTA($B$6:B15),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
-        <f>IF(B17&lt;&gt;"",COUNTA($B$6:B16),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
-        <f>IF(B18&lt;&gt;"",COUNTA($B$6:B17),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
-        <f>IF(B19&lt;&gt;"",COUNTA($B$6:B18),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="str">
-        <f>IF(B20&lt;&gt;"",COUNTA($B$6:B19),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="str">
-        <f>IF(B21&lt;&gt;"",COUNTA($B$6:B20),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
-        <f>IF(B22&lt;&gt;"",COUNTA($B$6:B21),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
-        <f>IF(B23&lt;&gt;"",COUNTA($B$6:B22),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
-        <f>IF(B24&lt;&gt;"",COUNTA($B$6:B23),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
-        <f>IF(B25&lt;&gt;"",COUNTA($B$6:B24),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
-        <f>IF(B26&lt;&gt;"",COUNTA($B$6:B25),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="str">
-        <f>IF(B27&lt;&gt;"",COUNTA($B$6:B26),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="str">
-        <f>IF(B28&lt;&gt;"",COUNTA($B$6:B27),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="str">
-        <f>IF(B29&lt;&gt;"",COUNTA($B$6:B28),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="str">
-        <f>IF(B30&lt;&gt;"",COUNTA($B$6:B29),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="str">
-        <f>IF(B31&lt;&gt;"",COUNTA($B$6:B30),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="str">
-        <f>IF(B32&lt;&gt;"",COUNTA($B$6:B31),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
-        <f>IF(B33&lt;&gt;"",COUNTA($B$6:B32),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
-        <f>IF(B34&lt;&gt;"",COUNTA($B$6:B33),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="str">
-        <f>IF(B35&lt;&gt;"",COUNTA($B$6:B34),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="str">
-        <f>IF(B36&lt;&gt;"",COUNTA($B$6:B35),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="str">
-        <f>IF(B37&lt;&gt;"",COUNTA($B$6:B36),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="str">
-        <f>IF(B38&lt;&gt;"",COUNTA($B$6:B37),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="str">
-        <f>IF(B39&lt;&gt;"",COUNTA($B$6:B38),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="str">
-        <f>IF(B40&lt;&gt;"",COUNTA($B$6:B39),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="str">
-        <f>IF(B41&lt;&gt;"",COUNTA($B$6:B40),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="str">
-        <f>IF(B42&lt;&gt;"",COUNTA($B$6:B41),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="str">
-        <f>IF(B43&lt;&gt;"",COUNTA($B$6:B42),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="str">
-        <f>IF(B44&lt;&gt;"",COUNTA($B$6:B43),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="str">
-        <f>IF(B45&lt;&gt;"",COUNTA($B$6:B44),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="str">
-        <f>IF(B46&lt;&gt;"",COUNTA($B$6:B45),"")</f>
-        <v/>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
-        <f>IF(B47&lt;&gt;"",COUNTA($B$6:B46),"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
-        <f>IF(B48&lt;&gt;"",COUNTA($B$6:B47),"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="str">
-        <f>IF(B49&lt;&gt;"",COUNTA($B$6:B48),"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="str">
-        <f>IF(B50&lt;&gt;"",COUNTA($B$6:B49),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="str">
-        <f>IF(B51&lt;&gt;"",COUNTA($B$6:B50),"")</f>
-        <v/>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
-        <f>IF(B52&lt;&gt;"",COUNTA($B$6:B51),"")</f>
-        <v/>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="str">
-        <f>IF(B53&lt;&gt;"",COUNTA($B$6:B52),"")</f>
-        <v/>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
-        <f>IF(B54&lt;&gt;"",COUNTA($B$6:B53),"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="str">
-        <f>IF(B55&lt;&gt;"",COUNTA($B$6:B54),"")</f>
-        <v/>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
-        <f>IF(B56&lt;&gt;"",COUNTA($B$6:B55),"")</f>
-        <v/>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
-        <f>IF(B57&lt;&gt;"",COUNTA($B$6:B56),"")</f>
-        <v/>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="str">
-        <f>IF(B58&lt;&gt;"",COUNTA($B$6:B57),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="str">
-        <f>IF(B59&lt;&gt;"",COUNTA($B$6:B58),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
-        <f>IF(B60&lt;&gt;"",COUNTA($B$6:B59),"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
-        <f>IF(B61&lt;&gt;"",COUNTA($B$6:B60),"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="str">
-        <f>IF(B62&lt;&gt;"",COUNTA($B$6:B61),"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
-        <f>IF(B63&lt;&gt;"",COUNTA($B$6:B62),"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="str">
-        <f>IF(B64&lt;&gt;"",COUNTA($B$6:B63),"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="str">
-        <f>IF(B65&lt;&gt;"",COUNTA($B$6:B64),"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="str">
-        <f>IF(B66&lt;&gt;"",COUNTA($B$6:B65),"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="str">
-        <f>IF(B67&lt;&gt;"",COUNTA($B$6:B66),"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="str">
-        <f>IF(B68&lt;&gt;"",COUNTA($B$6:B67),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="str">
-        <f>IF(B69&lt;&gt;"",COUNTA($B$6:B68),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="str">
-        <f>IF(B70&lt;&gt;"",COUNTA($B$6:B69),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="str">
-        <f>IF(B71&lt;&gt;"",COUNTA($B$6:B70),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="str">
-        <f>IF(B72&lt;&gt;"",COUNTA($B$6:B71),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
-        <f>IF(B73&lt;&gt;"",COUNTA($B$6:B72),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f>IF(B74&lt;&gt;"",COUNTA($B$6:B73),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
-        <f>IF(B75&lt;&gt;"",COUNTA($B$6:B74),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="str">
-        <f>IF(B76&lt;&gt;"",COUNTA($B$6:B75),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="str">
-        <f>IF(B77&lt;&gt;"",COUNTA($B$6:B76),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="str">
-        <f>IF(B78&lt;&gt;"",COUNTA($B$6:B77),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="str">
-        <f>IF(B79&lt;&gt;"",COUNTA($B$6:B78),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="str">
-        <f>IF(B80&lt;&gt;"",COUNTA($B$6:B79),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
-        <f>IF(B81&lt;&gt;"",COUNTA($B$6:B80),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="str">
-        <f>IF(B82&lt;&gt;"",COUNTA($B$6:B81),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="str">
-        <f>IF(B83&lt;&gt;"",COUNTA($B$6:B82),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="str">
-        <f>IF(B84&lt;&gt;"",COUNTA($B$6:B83),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="str">
-        <f>IF(B85&lt;&gt;"",COUNTA($B$6:B84),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="str">
-        <f>IF(B86&lt;&gt;"",COUNTA($B$6:B85),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="str">
-        <f>IF(B87&lt;&gt;"",COUNTA($B$6:B86),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
-        <f>IF(B88&lt;&gt;"",COUNTA($B$6:B87),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="str">
-        <f>IF(B89&lt;&gt;"",COUNTA($B$6:B88),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f>IF(B90&lt;&gt;"",COUNTA($B$6:B89),"")</f>
-        <v/>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
-        <f>IF(B91&lt;&gt;"",COUNTA($B$6:B90),"")</f>
-        <v/>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f>IF(B92&lt;&gt;"",COUNTA($B$6:B91),"")</f>
-        <v/>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="str">
-        <f>IF(B93&lt;&gt;"",COUNTA($B$6:B92),"")</f>
-        <v/>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="str">
-        <f>IF(B94&lt;&gt;"",COUNTA($B$6:B93),"")</f>
-        <v/>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="str">
-        <f>IF(B95&lt;&gt;"",COUNTA($B$6:B94),"")</f>
-        <v/>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="str">
-        <f>IF(B96&lt;&gt;"",COUNTA($B$6:B95),"")</f>
-        <v/>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="str">
-        <f>IF(B97&lt;&gt;"",COUNTA($B$6:B96),"")</f>
-        <v/>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f>IF(B98&lt;&gt;"",COUNTA($B$6:B97),"")</f>
-        <v/>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="str">
-        <f>IF(B99&lt;&gt;"",COUNTA($B$6:B98),"")</f>
-        <v/>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="str">
-        <f>IF(B100&lt;&gt;"",COUNTA($B$6:B99),"")</f>
-        <v/>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="str">
-        <f>IF(B101&lt;&gt;"",COUNTA($B$6:B100),"")</f>
-        <v/>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D2258">
-      <formula1>"OK,NG"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>